--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N2">
         <v>0.247237</v>
@@ -570,16 +570,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q2">
-        <v>2.578734104477777</v>
+        <v>3.414232949535</v>
       </c>
       <c r="R2">
-        <v>23.2086069403</v>
+        <v>30.728096545815</v>
       </c>
       <c r="S2">
-        <v>0.0009580658503022408</v>
+        <v>0.003294315099086412</v>
       </c>
       <c r="T2">
-        <v>0.0009580658503022406</v>
+        <v>0.003294315099086412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,16 +632,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q3">
-        <v>51.97449294186666</v>
+        <v>68.81400685295999</v>
       </c>
       <c r="R3">
-        <v>467.7704364768</v>
+        <v>619.3260616766399</v>
       </c>
       <c r="S3">
-        <v>0.01930985699064982</v>
+        <v>0.06639705759831548</v>
       </c>
       <c r="T3">
-        <v>0.01930985699064981</v>
+        <v>0.06639705759831548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,13 +667,13 @@
         <v>170.232249</v>
       </c>
       <c r="H4">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I4">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J4">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N4">
         <v>0.247237</v>
@@ -700,10 +700,10 @@
         <v>126.263131638039</v>
       </c>
       <c r="S4">
-        <v>0.005212221262818196</v>
+        <v>0.01353648900422299</v>
       </c>
       <c r="T4">
-        <v>0.005212221262818196</v>
+        <v>0.01353648900422299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,13 +729,13 @@
         <v>170.232249</v>
       </c>
       <c r="H5">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I5">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J5">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -756,16 +756,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q5">
-        <v>282.7598511629761</v>
+        <v>282.759851162976</v>
       </c>
       <c r="R5">
         <v>2544.838660466784</v>
       </c>
       <c r="S5">
-        <v>0.1050525359576196</v>
+        <v>0.2728284978997943</v>
       </c>
       <c r="T5">
-        <v>0.1050525359576196</v>
+        <v>0.2728284978997944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H6">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I6">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J6">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N6">
         <v>0.247237</v>
@@ -818,16 +818,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q6">
-        <v>49.77511360497721</v>
+        <v>20.15609257272222</v>
       </c>
       <c r="R6">
-        <v>447.976022444795</v>
+        <v>181.4048331545</v>
       </c>
       <c r="S6">
-        <v>0.01849273116489086</v>
+        <v>0.01944815162947381</v>
       </c>
       <c r="T6">
-        <v>0.01849273116489086</v>
+        <v>0.01944815162947382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H7">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I7">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J7">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q7">
-        <v>1003.219481314613</v>
+        <v>406.2468826613333</v>
       </c>
       <c r="R7">
-        <v>9028.97533183152</v>
+        <v>3656.221943951999</v>
       </c>
       <c r="S7">
-        <v>0.3727217644256121</v>
+        <v>0.3919783035572562</v>
       </c>
       <c r="T7">
-        <v>0.3727217644256121</v>
+        <v>0.3919783035572562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H8">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I8">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J8">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N8">
         <v>0.247237</v>
@@ -942,16 +942,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q8">
-        <v>3.581952541705443</v>
+        <v>1.992173689513</v>
       </c>
       <c r="R8">
-        <v>32.237572875349</v>
+        <v>17.929563205617</v>
       </c>
       <c r="S8">
-        <v>0.001330787226822777</v>
+        <v>0.001922202720894949</v>
       </c>
       <c r="T8">
-        <v>0.001330787226822777</v>
+        <v>0.001922202720894949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H9">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I9">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J9">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1004,16 +1004,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q9">
-        <v>72.19440219668265</v>
+        <v>40.15234342492801</v>
       </c>
       <c r="R9">
-        <v>649.7496197701439</v>
+        <v>361.3710908243521</v>
       </c>
       <c r="S9">
-        <v>0.02682207180939029</v>
+        <v>0.03874207564731587</v>
       </c>
       <c r="T9">
-        <v>0.02682207180939029</v>
+        <v>0.03874207564731586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H10">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I10">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J10">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N10">
         <v>0.247237</v>
@@ -1066,16 +1066,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q10">
-        <v>57.26724638150066</v>
+        <v>9.399018711451557</v>
       </c>
       <c r="R10">
-        <v>515.405217433506</v>
+        <v>84.591168403064</v>
       </c>
       <c r="S10">
-        <v>0.02127625062378088</v>
+        <v>0.0090688976749368</v>
       </c>
       <c r="T10">
-        <v>0.02127625062378088</v>
+        <v>0.0090688976749368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H11">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I11">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J11">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1128,16 +1128,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q11">
-        <v>1154.223728490304</v>
+        <v>189.4376123659094</v>
       </c>
       <c r="R11">
-        <v>10388.01355641274</v>
+        <v>1704.938511293184</v>
       </c>
       <c r="S11">
-        <v>0.4288237146881133</v>
+        <v>0.1827840091687032</v>
       </c>
       <c r="T11">
-        <v>0.4288237146881133</v>
+        <v>0.1827840091687032</v>
       </c>
     </row>
   </sheetData>
